--- a/db/TGN-4101-Hotel.xlsx
+++ b/db/TGN-4101-Hotel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-Taoyuan/file/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-Tainan/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BA1F06-9C70-A24B-9E40-8F12D065D437}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA3A092-AA8C-1E44-B7BE-A367F5608462}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17040" yWindow="3960" windowWidth="26820" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="20080" yWindow="1320" windowWidth="30080" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="80">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,128 +99,251 @@
     <t>06</t>
   </si>
   <si>
-    <t xml:space="preserve">台北諾富特華航桃園機場飯店 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/TGT-4111-Hotel-01.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/TGT-4111-Hotel-02.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fig/TGT-4111-Hotel-03.jpg</t>
-  </si>
-  <si>
-    <t>fig/TGT-4111-Hotel-04.jpg</t>
-  </si>
-  <si>
-    <t>fig/TGT-4111-Hotel-05.jpg</t>
-  </si>
-  <si>
-    <t>fig/TGT-4111-Hotel-06.jpg</t>
-  </si>
-  <si>
-    <t>https://www.novoteltaipeiairport.com/tw/</t>
-  </si>
-  <si>
-    <t>尊爵天際大飯店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.skyline-hotels.com.tw/tw/</t>
-  </si>
-  <si>
-    <t>福容大飯店 - 桃園機場捷運 A8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.fullon-hotels.com.tw/a8/tw/</t>
-  </si>
-  <si>
-    <t>尊爵大飯店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.monarch-hotels.com.tw/</t>
-  </si>
-  <si>
-    <t>中壢米堤大飯店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>886-3-328-5688</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>886-3-316-9900</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">886-3-212-1001 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>886-3-398-0888</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.lemidi-hotel.com/</t>
-  </si>
-  <si>
-    <t>886-3-427-9966</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃花園飯店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.taogarden.com.tw/</t>
-  </si>
-  <si>
-    <t>886-3-286-8333</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大園區</t>
-  </si>
-  <si>
-    <t>蘆竹區</t>
-  </si>
-  <si>
-    <t>龜山區</t>
-  </si>
-  <si>
-    <t>桃園區</t>
-  </si>
-  <si>
-    <t>中壢區</t>
-  </si>
-  <si>
-    <t>桃園市大園區航站南路 1-1 號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃園市蘆竹區南崁路 1 段 108 號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃園市龜山區復興一路 2 號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃園市桃園區莊敬路一段 300 號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃園市中壢區中央西路一段 120 號 23 樓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃園市桃園區復興路151號</t>
+    <t xml:space="preserve">台南東區大學路西段89號 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香格里拉台南遠東國際大飯店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06-702-8888</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGN-4101-Hotel-香格里拉-01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.shangri-la.com/tc/tainan/fareasternplazashangrila/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">台南市民生路二段 76 號 8 樓, 中西區, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">富驛時尚酒店台南民生路館
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中西區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.fxhotels.com.tw/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0800-313-313</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGN-4101-Hotel-富驛時尚-01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南老爺行旅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南市東區中華東路一段368號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.hotelroyal.com.tw/tainan/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06-236-6168</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGN-4101-Hotel-老爺行旅-01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台糖長榮酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南市中華東路三段 336 巷 1 號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.evergreen-hotels.com/branch2/?d1b_Sn=6&amp;lang=zh-TW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06-289-9988</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">台南大飯店 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.hotel-tainan.com.tw/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南市中西區成功路一號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06-228-9101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGN-4101-Hotel-台南大飯店-01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>煙波大飯店台南館</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tainan.lakeshore.com.tw/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">台南市中西區永福路一段269號 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06-215-6000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGN-4101-Hotel-煙波大飯店-01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南晶英酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>https://tainan.silksplace.com/tw/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南市中西區和意路1號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06-213-6290</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGN-4101-Hotel-晶英酒店-01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榮美金鬱金香酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.rsbhotels.com.tw/index.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南市北區海安路３段50號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06-220-0366</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和逸台南西門館</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hotelcozzi.com/%E5%8F%B0%E5%8D%97%E8%A5%BF%E9%96%80%E9%A4%A8/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南市中西區西門路一段658之2號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06-702-6699</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGN-4101-Hotel-金鬱金香-01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGN-4101-Hotel-和逸台南-01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>榮興金鬱金香酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.rs-boutique-hotel.com.tw/index.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南市中西區民族路二段128號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06-220-8366</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGN-4101-Hotel-榮興金鬱-01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.laplaza.com.tw/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南市北區成功路202號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06-229-0271</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGN-4101-Hotel-天下大飯店-01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天下南隅/天下大飯店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGN-4101-Hotel-台糖長榮-01.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,13 +739,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B381011-57CE-744B-93B5-4755BEF67163}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -636,7 +759,7 @@
     <col min="7" max="7" width="34.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="17" style="2" customWidth="1"/>
     <col min="9" max="9" width="28.5" customWidth="1"/>
-    <col min="10" max="10" width="62.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="21" style="3" customWidth="1"/>
     <col min="11" max="11" width="29" customWidth="1"/>
   </cols>
   <sheetData>
@@ -680,31 +803,31 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="5">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6">
+        <v>3060</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="F2" s="6">
-        <v>3429</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16">
+    <row r="3" spans="1:10" ht="32">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -712,27 +835,27 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
         <v>25</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
       <c r="F3" s="6">
-        <v>3124</v>
+        <v>1195</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -744,31 +867,31 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>4</v>
       </c>
       <c r="F4" s="6">
-        <v>2944</v>
+        <v>2167</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16">
+    <row r="5" spans="1:10" ht="32">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -776,28 +899,28 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>4.5</v>
       </c>
       <c r="F5" s="6">
-        <v>2574</v>
+        <v>2313</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>30</v>
+        <v>79</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="32">
@@ -808,31 +931,31 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6" s="6">
-        <v>2267</v>
+        <v>1825</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16">
+    <row r="7" spans="1:10" ht="32">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -840,32 +963,205 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E7">
         <v>4</v>
       </c>
       <c r="F7" s="6">
-        <v>1559</v>
+        <v>2369</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="32">
+      <c r="A8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8">
+        <v>4.5</v>
+      </c>
+      <c r="F8" s="6">
+        <v>3623</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="32">
+      <c r="A9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2468</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="32">
+      <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>39</v>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10" s="6">
+        <v>3430</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="32">
+      <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2468</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="32">
+      <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12" s="6">
+        <v>2260</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{C07521A1-CFC5-CE4B-9425-DAAF320816B2}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{0B5E8D10-5FA0-0C4C-9A63-014A92E173DE}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{42497182-2C0D-8142-9191-373F18A5A9F4}"/>
+    <hyperlink ref="J5" r:id="rId4" xr:uid="{D293FB43-76B4-8E4B-B063-D025FF798FD6}"/>
+    <hyperlink ref="J6" r:id="rId5" xr:uid="{C6E38FFC-1735-2347-9D8F-6C6BCFD92A1E}"/>
+    <hyperlink ref="J7" r:id="rId6" xr:uid="{BA4EC8BC-2763-114E-AA36-728F22D75709}"/>
+    <hyperlink ref="J8" r:id="rId7" xr:uid="{7FBAC8A5-8E15-9A47-8A6D-88A46F8ED76F}"/>
+    <hyperlink ref="J9" r:id="rId8" xr:uid="{214F0D2E-0463-B949-9EB5-9E21EE6F5A22}"/>
+    <hyperlink ref="J10" r:id="rId9" xr:uid="{3B9F51F1-BE46-014F-A315-87E541385051}"/>
+    <hyperlink ref="J11" r:id="rId10" xr:uid="{B0F64726-A3AD-EA4A-9007-93CE34BBB404}"/>
+    <hyperlink ref="J12" r:id="rId11" xr:uid="{284CB321-271A-9D44-BB98-2AC3DDE488FC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>